--- a/SchedulingData/dynamic12/pso/scheduling1_16.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_16.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.62</v>
+        <v>45.5</v>
       </c>
       <c r="E2" t="n">
-        <v>26.568</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.2</v>
+        <v>47.54</v>
       </c>
       <c r="E3" t="n">
-        <v>25.38</v>
+        <v>26.436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.54</v>
+        <v>45.5</v>
       </c>
       <c r="E4" t="n">
-        <v>26.436</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>47.54</v>
       </c>
       <c r="D5" t="n">
-        <v>51.86</v>
+        <v>101.34</v>
       </c>
       <c r="E5" t="n">
-        <v>26.984</v>
+        <v>24.156</v>
       </c>
     </row>
     <row r="6">
@@ -542,188 +542,188 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="D6" t="n">
-        <v>35.5</v>
+        <v>98.92</v>
       </c>
       <c r="E6" t="n">
-        <v>27.64</v>
+        <v>22.428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.88</v>
+        <v>63.2</v>
       </c>
       <c r="E7" t="n">
-        <v>23.792</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>114.88</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>149.38</v>
+        <v>38.3</v>
       </c>
       <c r="E8" t="n">
-        <v>21.472</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>149.38</v>
+        <v>101.34</v>
       </c>
       <c r="D9" t="n">
-        <v>189</v>
+        <v>153.54</v>
       </c>
       <c r="E9" t="n">
-        <v>19.14</v>
+        <v>21.076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>90.62</v>
+        <v>45.5</v>
       </c>
       <c r="D10" t="n">
-        <v>130.62</v>
+        <v>122.56</v>
       </c>
       <c r="E10" t="n">
-        <v>23.708</v>
+        <v>24.044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.54</v>
+        <v>122.56</v>
       </c>
       <c r="D11" t="n">
-        <v>91.59999999999999</v>
+        <v>173.48</v>
       </c>
       <c r="E11" t="n">
-        <v>23.16</v>
+        <v>20.572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>189</v>
+        <v>173.48</v>
       </c>
       <c r="D12" t="n">
-        <v>265.16</v>
+        <v>212.64</v>
       </c>
       <c r="E12" t="n">
-        <v>15.604</v>
+        <v>17.296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>51.86</v>
+        <v>98.92</v>
       </c>
       <c r="D13" t="n">
-        <v>105.06</v>
+        <v>151.92</v>
       </c>
       <c r="E13" t="n">
-        <v>24.264</v>
+        <v>18.268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>265.16</v>
+        <v>153.54</v>
       </c>
       <c r="D14" t="n">
-        <v>323.9</v>
+        <v>229.9</v>
       </c>
       <c r="E14" t="n">
-        <v>12.82</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="D15" t="n">
-        <v>68.52</v>
+        <v>113.8</v>
       </c>
       <c r="E15" t="n">
-        <v>26.808</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>68.52</v>
+        <v>212.64</v>
       </c>
       <c r="D16" t="n">
-        <v>138.22</v>
+        <v>277.86</v>
       </c>
       <c r="E16" t="n">
-        <v>23.448</v>
+        <v>13.864</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>138.22</v>
+        <v>38.3</v>
       </c>
       <c r="D17" t="n">
-        <v>191.64</v>
+        <v>93.5</v>
       </c>
       <c r="E17" t="n">
-        <v>19.236</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>91.59999999999999</v>
+        <v>113.8</v>
       </c>
       <c r="D18" t="n">
-        <v>153.94</v>
+        <v>193.08</v>
       </c>
       <c r="E18" t="n">
-        <v>20.036</v>
+        <v>18.112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>53.2</v>
+        <v>193.08</v>
       </c>
       <c r="D19" t="n">
-        <v>109.12</v>
+        <v>264.54</v>
       </c>
       <c r="E19" t="n">
-        <v>21.908</v>
+        <v>13.576</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>130.62</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>180.52</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>20.828</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>109.12</v>
+        <v>93.5</v>
       </c>
       <c r="D21" t="n">
-        <v>151.82</v>
+        <v>143.6</v>
       </c>
       <c r="E21" t="n">
-        <v>19.268</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="22">
@@ -846,55 +846,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>323.9</v>
+        <v>151.92</v>
       </c>
       <c r="D22" t="n">
-        <v>359.94</v>
+        <v>192.08</v>
       </c>
       <c r="E22" t="n">
-        <v>9.856</v>
+        <v>15.892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>151.82</v>
+        <v>192.08</v>
       </c>
       <c r="D23" t="n">
-        <v>213.38</v>
+        <v>252.62</v>
       </c>
       <c r="E23" t="n">
-        <v>14.732</v>
+        <v>12.928</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>105.06</v>
+        <v>252.62</v>
       </c>
       <c r="D24" t="n">
-        <v>176.6</v>
+        <v>304.34</v>
       </c>
       <c r="E24" t="n">
-        <v>21.24</v>
+        <v>10.376</v>
       </c>
     </row>
     <row r="25">
@@ -903,36 +903,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>180.52</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>232.62</v>
+        <v>146.58</v>
       </c>
       <c r="E25" t="n">
-        <v>16.748</v>
+        <v>23.132</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>153.94</v>
+        <v>277.86</v>
       </c>
       <c r="D26" t="n">
-        <v>223.6</v>
+        <v>324.66</v>
       </c>
       <c r="E26" t="n">
-        <v>17.66</v>
+        <v>10.324</v>
       </c>
     </row>
     <row r="27">
@@ -941,55 +941,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>213.38</v>
+        <v>143.6</v>
       </c>
       <c r="D27" t="n">
-        <v>274.22</v>
+        <v>211.9</v>
       </c>
       <c r="E27" t="n">
-        <v>11.768</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>191.64</v>
+        <v>211.9</v>
       </c>
       <c r="D28" t="n">
-        <v>244.64</v>
+        <v>296.28</v>
       </c>
       <c r="E28" t="n">
-        <v>15.076</v>
+        <v>14.012</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>244.64</v>
+        <v>296.28</v>
       </c>
       <c r="D29" t="n">
-        <v>319.52</v>
+        <v>355.38</v>
       </c>
       <c r="E29" t="n">
-        <v>11.668</v>
+        <v>11.692</v>
       </c>
     </row>
     <row r="30">
@@ -998,226 +998,226 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>223.6</v>
+        <v>229.9</v>
       </c>
       <c r="D30" t="n">
-        <v>287.04</v>
+        <v>273.94</v>
       </c>
       <c r="E30" t="n">
-        <v>13.916</v>
+        <v>15.276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>287.04</v>
+        <v>146.58</v>
       </c>
       <c r="D31" t="n">
-        <v>347.24</v>
+        <v>191.1</v>
       </c>
       <c r="E31" t="n">
-        <v>10.496</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>274.22</v>
+        <v>191.1</v>
       </c>
       <c r="D32" t="n">
-        <v>343.74</v>
+        <v>253.1</v>
       </c>
       <c r="E32" t="n">
-        <v>8.936</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>176.6</v>
+        <v>273.94</v>
       </c>
       <c r="D33" t="n">
-        <v>251.08</v>
+        <v>340.2</v>
       </c>
       <c r="E33" t="n">
-        <v>17.392</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>347.24</v>
+        <v>304.34</v>
       </c>
       <c r="D34" t="n">
-        <v>403.86</v>
+        <v>349.14</v>
       </c>
       <c r="E34" t="n">
-        <v>7.944</v>
+        <v>8.016</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>232.62</v>
+        <v>355.38</v>
       </c>
       <c r="D35" t="n">
-        <v>261.82</v>
+        <v>403.36</v>
       </c>
       <c r="E35" t="n">
-        <v>14.468</v>
+        <v>9.004</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>251.08</v>
+        <v>324.66</v>
       </c>
       <c r="D36" t="n">
-        <v>308.24</v>
+        <v>374.66</v>
       </c>
       <c r="E36" t="n">
-        <v>14.796</v>
+        <v>7.464</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>359.94</v>
+        <v>340.2</v>
       </c>
       <c r="D37" t="n">
-        <v>411.54</v>
+        <v>400.74</v>
       </c>
       <c r="E37" t="n">
-        <v>6.316</v>
+        <v>8.776</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>319.52</v>
+        <v>264.54</v>
       </c>
       <c r="D38" t="n">
-        <v>361.62</v>
+        <v>324.72</v>
       </c>
       <c r="E38" t="n">
-        <v>8.587999999999999</v>
+        <v>10.168</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>361.62</v>
+        <v>324.72</v>
       </c>
       <c r="D39" t="n">
-        <v>436.82</v>
+        <v>359.44</v>
       </c>
       <c r="E39" t="n">
-        <v>4.688</v>
+        <v>7.836</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>261.82</v>
+        <v>349.14</v>
       </c>
       <c r="D40" t="n">
-        <v>300</v>
+        <v>415.28</v>
       </c>
       <c r="E40" t="n">
-        <v>11.78</v>
+        <v>4.992</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>300</v>
+        <v>359.44</v>
       </c>
       <c r="D41" t="n">
-        <v>369.7</v>
+        <v>407.56</v>
       </c>
       <c r="E41" t="n">
-        <v>8.42</v>
+        <v>4.644</v>
       </c>
     </row>
   </sheetData>
